--- a/src/demo/zxxt_03_z01_excel_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_03_z01_excel_xlsx.w3mi.data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="7125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="First sheet" sheetId="1" r:id="rId1"/>
@@ -17,20 +17,15 @@
     <sheet name="Last sheet" sheetId="3" r:id="rId3"/>
     <sheet name="2nd 'D'{D-TITLE}" sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="E_">'2nd ''D''{D-TITLE}'!$E$6</definedName>
-    <definedName name="F_">[1]SimpleTree!$F$5</definedName>
-    <definedName name="RANGE_SUM1">[1]SimpleTree!$E$5</definedName>
+    <definedName name="E_" localSheetId="3">'2nd ''D''{D-TITLE}'!$G$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <r>
       <t xml:space="preserve">Title: </t>
@@ -132,9 +127,6 @@
     <t>{D-T-CAPTION}</t>
   </si>
   <si>
-    <t>{D-T-DATE}</t>
-  </si>
-  <si>
     <t>{D-T-SUM1}</t>
   </si>
   <si>
@@ -160,13 +152,31 @@
   </si>
   <si>
     <t>{D-T-GROUP;merge=X}</t>
+  </si>
+  <si>
+    <t>{D-T-GROUP}</t>
+  </si>
+  <si>
+    <t>_{D-T-GROUP;merge=X}_</t>
+  </si>
+  <si>
+    <t>Merge 2</t>
+  </si>
+  <si>
+    <t>Merge 3</t>
+  </si>
+  <si>
+    <t>{D-T;cond=sy-datum;type=date;merge=X}</t>
+  </si>
+  <si>
+    <t>{D-T-DATE;merge=X}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -323,6 +333,8 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -339,8 +351,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +553,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +802,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -809,9 +839,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -839,11 +866,35 @@
     <xf numFmtId="4" fontId="22" fillId="35" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="34" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="35" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="37" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1149,32 +1200,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Formula"/>
-      <sheetName val="SimpleTree"/>
-      <sheetName val="Tree3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="E5" t="str">
-            <v>{R-T-SUM1}</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>{R-T-SUM2}</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:D5" totalsRowCount="1" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B3:D4"/>
@@ -1452,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1475,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1489,14 +1514,14 @@
       <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="24"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1523,15 +1548,15 @@
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24" t="e">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33" t="e">
         <f>Table1[[#This Row],[SUM1]]*Table1[[#This Row],[SUM2]]+C$4-D$4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -1592,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1603,90 +1628,120 @@
     <col min="1" max="1" width="20.7109375" style="11" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" style="11" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="11" customWidth="1"/>
-    <col min="5" max="6" width="33.42578125" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="11"/>
+    <col min="4" max="4" width="12.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="11" customWidth="1"/>
+    <col min="7" max="8" width="33.42578125" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:6" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>26</v>
+      <c r="D6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="19" t="s">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="e">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="e">
         <f>AVERAGE(E_)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="H7" s="22" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
